--- a/Excel/道具.xlsx
+++ b/Excel/道具.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\TheLoop\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6267A32C-8763-47BA-BBCB-F924CED52FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B2529A-07B5-457F-AA6C-CEBA45A87535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2268" yWindow="4932" windowWidth="23040" windowHeight="11772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-240" yWindow="3540" windowWidth="23040" windowHeight="11772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="100">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,20 +81,288 @@
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标
+图标表的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像 2</t>
+  </si>
+  <si>
+    <t>头像 3</t>
+  </si>
+  <si>
+    <t>头像 4</t>
+  </si>
+  <si>
+    <t>头像 5</t>
+  </si>
+  <si>
+    <t>头像 6</t>
+  </si>
+  <si>
+    <t>头像 7</t>
+  </si>
+  <si>
+    <t>头像 8</t>
+  </si>
+  <si>
+    <t>头像 9</t>
+  </si>
+  <si>
+    <t>头像 10</t>
+  </si>
+  <si>
+    <t>漂亮的头像 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漂亮的头像 2</t>
+  </si>
+  <si>
+    <t>漂亮的头像 3</t>
+  </si>
+  <si>
+    <t>漂亮的头像 4</t>
+  </si>
+  <si>
+    <t>漂亮的头像 5</t>
+  </si>
+  <si>
+    <t>漂亮的头像 6</t>
+  </si>
+  <si>
+    <t>漂亮的头像 7</t>
+  </si>
+  <si>
+    <t>漂亮的头像 8</t>
+  </si>
+  <si>
+    <t>漂亮的头像 9</t>
+  </si>
+  <si>
+    <t>漂亮的头像 10</t>
   </si>
   <si>
     <t>道具类型
 0 - 普通
-1 - 形象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标
-图标表的ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon</t>
+11 - 形象 头像
+12 - 形象 换装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左手 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漂亮的左手 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左手 2</t>
+  </si>
+  <si>
+    <t>左手 3</t>
+  </si>
+  <si>
+    <t>漂亮的左手 2</t>
+  </si>
+  <si>
+    <t>漂亮的左手 3</t>
+  </si>
+  <si>
+    <t>右手 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右手 2</t>
+  </si>
+  <si>
+    <t>右手 3</t>
+  </si>
+  <si>
+    <t>漂亮的右手 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漂亮的右手 2</t>
+  </si>
+  <si>
+    <t>漂亮的右手 3</t>
+  </si>
+  <si>
+    <t>躯干 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>躯干 2</t>
+  </si>
+  <si>
+    <t>躯干 3</t>
+  </si>
+  <si>
+    <t>发型 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发型 2</t>
+  </si>
+  <si>
+    <t>发型 3</t>
+  </si>
+  <si>
+    <t>左腿 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左腿1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右腿 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右腿 2</t>
+  </si>
+  <si>
+    <t>右腿 3</t>
+  </si>
+  <si>
+    <t>左腿 2</t>
+  </si>
+  <si>
+    <t>左腿 3</t>
+  </si>
+  <si>
+    <t>左腿2</t>
+  </si>
+  <si>
+    <t>左腿3</t>
+  </si>
+  <si>
+    <t>脸 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脸 2</t>
+  </si>
+  <si>
+    <t>脸 3</t>
+  </si>
+  <si>
+    <t>long[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[113,</t>
+  </si>
+  <si>
+    <t>[114,</t>
+  </si>
+  <si>
+    <t>[115,</t>
+  </si>
+  <si>
+    <t>[116,</t>
+  </si>
+  <si>
+    <t>[117,</t>
+  </si>
+  <si>
+    <t>[118,</t>
+  </si>
+  <si>
+    <t>[119,</t>
+  </si>
+  <si>
+    <t>[120,</t>
+  </si>
+  <si>
+    <t>[112,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[111,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[121,</t>
+  </si>
+  <si>
+    <t>[122,</t>
+  </si>
+  <si>
+    <t>[123,</t>
+  </si>
+  <si>
+    <t>[124,</t>
+  </si>
+  <si>
+    <t>[125,</t>
+  </si>
+  <si>
+    <t>[126,</t>
+  </si>
+  <si>
+    <t>[127,</t>
+  </si>
+  <si>
+    <t>[128,</t>
+  </si>
+  <si>
+    <t>[129,</t>
+  </si>
+  <si>
+    <t>[130,</t>
+  </si>
+  <si>
+    <t>[131,</t>
+  </si>
+  <si>
+    <t>[132,</t>
+  </si>
+  <si>
+    <t>[133,</t>
+  </si>
+  <si>
+    <t>[134,</t>
+  </si>
+  <si>
+    <t>[135,</t>
+  </si>
+  <si>
+    <t>[136,</t>
+  </si>
+  <si>
+    <t>[137,</t>
+  </si>
+  <si>
+    <t>[138,</t>
+  </si>
+  <si>
+    <t>[139,</t>
+  </si>
+  <si>
+    <t>[140,141,142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[143,144,145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[146,147,148</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,16 +694,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="38.88671875" customWidth="1"/>
     <col min="5" max="5" width="38.44140625" customWidth="1"/>
     <col min="6" max="6" width="32.21875" customWidth="1"/>
@@ -446,7 +714,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -455,7 +723,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -475,7 +743,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -502,16 +770,552 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>26</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>27</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>28</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>29</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>31</v>
+      </c>
+      <c r="C35">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>32</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
